--- a/Test Data/Final Increment/Tomato.xlsx
+++ b/Test Data/Final Increment/Tomato.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berkozdoruk/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/berkozdoruk/Desktop/GitHub/Elixir-Documentation/Test Data/Final Increment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE365EF-32E0-6E48-99AF-2EAADC8DE96C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AF1CF5-D6F0-754E-A0B0-0DEB638D8CA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{EB5AC7C9-2944-4712-9118-D18367CAF4EA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14080" xr2:uid="{EB5AC7C9-2944-4712-9118-D18367CAF4EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
     <t>IdealMaxTempCelsius</t>
   </si>
   <si>
-    <t>Eggplant</t>
+    <t>Tomato</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
